--- a/src/app/config/proprietary/proprietary_terms.xlsx
+++ b/src/app/config/proprietary/proprietary_terms.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\wei\rails_example_cp\config_basic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDF574B-F879-4EE2-A99F-183F8E0D9A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -311,62 +302,58 @@
   </si>
   <si>
     <t>攻擊指導</t>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>國泰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cathay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -376,76 +363,140 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -469,82 +520,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,6 +556,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -575,32 +567,28 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -621,16 +609,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -639,23 +618,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -679,7 +656,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -692,12 +669,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -709,1033 +687,2074 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C91"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.6719" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="21" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="9">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="9">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="9">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="9">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="9">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="9">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="8">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="9">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="9">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="9">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="8">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="9">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="9">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="9">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="9">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="9">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="8">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="9">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" t="s" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="9">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="8">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="9">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" t="s" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="9">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" t="s" s="8">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="9">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" t="s" s="8">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="9">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="8">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="9">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" t="s" s="8">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="9">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" t="s" s="8">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="9">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" t="s" s="8">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="9">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="8">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="9">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="9">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" t="s" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="9">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" t="s" s="8">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="9">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" t="s" s="8">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="9">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="8">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="9">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" t="s" s="8">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="9">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" t="s" s="8">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="9">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" t="s" s="8">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" ht="18.75" customHeight="1">
+      <c r="A52" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="9">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" t="s" s="8">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1">
+      <c r="A53" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="9">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" t="s" s="8">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="9">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" t="s" s="8">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="9">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" t="s" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" ht="18.75" customHeight="1">
+      <c r="A56" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="9">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" t="s" s="8">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="A57" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="9">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" t="s" s="8">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" ht="18.75" customHeight="1">
+      <c r="A58" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="9">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="8">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="9">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" t="s" s="8">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="9">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="9">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="8">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="9">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" t="s" s="8">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="9">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="8">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="9">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="8">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="9">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" t="s" s="8">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="9">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="8">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="9">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="8">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="A68" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="9">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="8">
         <v>73</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="A69" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="9">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" t="s" s="8">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="A70" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="9">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="8">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" ht="18.75" customHeight="1">
+      <c r="A71" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="9">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="8">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" ht="18.75" customHeight="1">
+      <c r="A72" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="9">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" t="s" s="8">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" ht="18.75" customHeight="1">
+      <c r="A73" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="9">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="8">
         <v>78</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="A74" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="9">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="8">
         <v>79</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" ht="18.75" customHeight="1">
+      <c r="A75" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="9">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="8">
         <v>81</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" ht="18.75" customHeight="1">
+      <c r="A76" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="9">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="8">
         <v>82</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" ht="18.75" customHeight="1">
+      <c r="A77" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="9">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="8">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" ht="18.75" customHeight="1">
+      <c r="A78" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="9">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="8">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" ht="18.75" customHeight="1">
+      <c r="A79" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="9">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="8">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" ht="18.75" customHeight="1">
+      <c r="A80" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="9">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="8">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" ht="18.75" customHeight="1">
+      <c r="A81" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="9">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="8">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="9">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="8">
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" ht="18.75" customHeight="1">
+      <c r="A83" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="9">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" t="s" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" ht="18.75" customHeight="1">
+      <c r="A84" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="9">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="8">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" ht="18.75" customHeight="1">
+      <c r="A85" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="9">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" t="s" s="8">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" ht="18.75" customHeight="1">
+      <c r="A86" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="9">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="8">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" ht="18.75" customHeight="1">
+      <c r="A87" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="9">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="8">
         <v>94</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" ht="18.75" customHeight="1">
+      <c r="A88" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="9">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="s" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="9">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" t="s" s="8">
         <v>96</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" s="3">
-        <v>89</v>
-      </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" s="3">
-        <v>90</v>
-      </c>
-      <c r="C91" t="s">
-        <v>99</v>
-      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" ht="16" customHeight="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" ht="16" customHeight="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>